--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omnex\Project\Latest\EWQIMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omnex\Repo\OmnexAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32A5C89-0C0C-4203-B952-B67A2F995503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682F9D0-EEB1-46AF-A865-A16B4AD9C8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="DocPro_Module" sheetId="3" r:id="rId4"/>
     <sheet name="AQuApro_Module" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DocPro_Module!$A$1:$AN$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -656,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +687,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,10 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -889,12 +900,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B084"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B084"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3151,7 +3218,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3160,19 +3227,19 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -3189,7 +3256,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3198,19 +3265,19 @@
       <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="F2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="21">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -3219,10 +3286,10 @@
       <c r="J2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3238,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E894568B-9590-425D-B70B-CA0CE93C4D0E}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3397,10 +3464,10 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3449,21 +3516,19 @@
       <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
+      <c r="B3" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3474,28 +3539,38 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="P3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="T3" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
+      <c r="Z3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
+      <c r="AI3" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -3503,26 +3578,30 @@
       <c r="AN3" s="12"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
+      <c r="B4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -3531,57 +3610,51 @@
       <c r="P4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12" t="s">
-        <v>95</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="AJ4" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>143</v>
+      <c r="B5" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>120</v>
@@ -3589,7 +3662,9 @@
       <c r="D5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3601,21 +3676,17 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="W5" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12" t="s">
         <v>94</v>
@@ -3630,78 +3701,100 @@
         <v>194</v>
       </c>
       <c r="AC5" s="12"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13" t="s">
-        <v>148</v>
-      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
+      <c r="AJ5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
       <c r="AN5" s="12"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
+      <c r="B6" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="P6" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
+      <c r="Y6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
-      <c r="AF6" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
+      <c r="AJ6" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
       <c r="AN6" s="12"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>156</v>
+      <c r="B7" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>120</v>
@@ -3709,61 +3802,69 @@
       <c r="D7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="Z7" s="12" t="s">
         <v>142</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AB7" s="12" t="s">
-        <v>194</v>
-      </c>
+      <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
-      <c r="AI7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="AL7" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
+      <c r="B8" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>120</v>
@@ -3818,14 +3919,16 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
+      <c r="AN8" s="12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>163</v>
+      <c r="B9" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>120</v>
@@ -3833,18 +3936,12 @@
       <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -3853,16 +3950,14 @@
       <c r="P9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="X9" s="12"/>
       <c r="Y9" s="12" t="s">
@@ -3884,19 +3979,17 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3967,11 +4060,11 @@
       <c r="AN10" s="12"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>165</v>
+      <c r="B11" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>120</v>
@@ -3985,8 +4078,12 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3995,14 +4092,16 @@
       <c r="P11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="X11" s="12"/>
       <c r="Y11" s="12" t="s">
@@ -4027,110 +4126,88 @@
       <c r="AJ11" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AK11" s="12" t="s">
-        <v>167</v>
-      </c>
+      <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
+      <c r="AM11" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="AN11" s="12"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>169</v>
+      <c r="B12" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12" t="s">
-        <v>136</v>
-      </c>
+      <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
-      <c r="AJ12" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ12" s="12"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>170</v>
+      <c r="B13" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -4140,48 +4217,56 @@
         <v>69</v>
       </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="R13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="X13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
+      <c r="AC13" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="AF13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="AI13" s="12"/>
-      <c r="AJ13" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
-      <c r="AL13" s="12" t="s">
-        <v>158</v>
-      </c>
+      <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="12"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>173</v>
+      <c r="B14" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>120</v>
@@ -4189,37 +4274,33 @@
       <c r="D14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="V14" s="12"/>
-      <c r="W14" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12" t="s">
         <v>94</v>
@@ -4234,34 +4315,32 @@
         <v>194</v>
       </c>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
-      <c r="AJ14" s="12" t="s">
-        <v>162</v>
-      </c>
+      <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
-      <c r="AM14" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A15" s="14">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>175</v>
+      <c r="B15" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4274,35 +4353,25 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12" t="s">
-        <v>136</v>
-      </c>
+      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>194</v>
-      </c>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
+      <c r="AF15" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
@@ -4310,11 +4379,14 @@
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="AN15" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN1" xr:uid="{E894568B-9590-425D-B70B-CA0CE93C4D0E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN15">
+      <sortCondition sortBy="cellColor" ref="B1" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omnex\Repo\OmnexAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682F9D0-EEB1-46AF-A865-A16B4AD9C8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D3BE9-1E32-421D-8C44-470082047889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,59 +906,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3306,7 +3272,7 @@
   <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3464,10 +3430,10 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3516,10 +3482,10 @@
       <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3578,10 +3544,10 @@
       <c r="AN3" s="12"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3650,10 +3616,10 @@
       <c r="AN4" s="12"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3718,10 +3684,10 @@
       <c r="AN5" s="12"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3790,10 +3756,10 @@
       <c r="AN6" s="12"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3860,10 +3826,10 @@
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3924,10 +3890,10 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3986,10 +3952,10 @@
       <c r="AN9" s="12"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4060,10 +4026,10 @@
       <c r="AN10" s="12"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4134,10 +4100,10 @@
       <c r="AN11" s="12"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4188,10 +4154,10 @@
       <c r="AN12" s="12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4262,10 +4228,10 @@
       <c r="AN13" s="12"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4329,11 +4295,11 @@
       <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4384,7 +4350,7 @@
   </sheetData>
   <autoFilter ref="A1:AN1" xr:uid="{E894568B-9590-425D-B70B-CA0CE93C4D0E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN15">
-      <sortCondition sortBy="cellColor" ref="B1" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="B1" dxfId="0"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
